--- a/batch-nine/Ivan3-sentence verification process.xlsx
+++ b/batch-nine/Ivan3-sentence verification process.xlsx
@@ -2968,8 +2968,8 @@
   </sheetPr>
   <dimension ref="A1:E994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3006,8 +3006,8 @@
         <v>6</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF($B$8:$B$101, "OK")/100</f>
-        <v>0.94</v>
+        <f>COUNTIF($B$8:$B$107, "OK")/100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
